--- a/结果/SVM分类/标准差/SVM_DE_biaozhuncha.xlsx
+++ b/结果/SVM分类/标准差/SVM_DE_biaozhuncha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\SVM分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5032A87A-59DB-43EF-A202-4B80DE1ABF11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D021A5C1-5DAB-462A-924A-B04BD0BC934B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="672" windowWidth="19668" windowHeight="11148" tabRatio="663" firstSheet="1" activeTab="5" xr2:uid="{A30C5435-30B2-4349-98DE-ADF2EDEF8D38}"/>
+    <workbookView xWindow="5292" yWindow="516" windowWidth="19668" windowHeight="9792" tabRatio="663" firstSheet="1" activeTab="5" xr2:uid="{A30C5435-30B2-4349-98DE-ADF2EDEF8D38}"/>
   </bookViews>
   <sheets>
     <sheet name="biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -412,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12998AB6-9737-4B74-B63D-F322F7BD0B91}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -529,9 +546,17 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -716,6 +741,44 @@
       </c>
       <c r="K21">
         <v>0.84210499999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f t="shared" ref="A22:C22" si="0">AVERAGE(A17:A21)</f>
+        <v>0.90875000000000006</v>
+      </c>
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.90875000000000006</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.90875000000000006</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" ref="E22:G22" si="1">AVERAGE(E17:E21)</f>
+        <v>0.95572339999999989</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.95329960000000002</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.95124639999999994</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" ref="I22:K22" si="2">AVERAGE(I17:I21)</f>
+        <v>0.86235060000000008</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="2"/>
+        <v>0.86725740000000007</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="2"/>
+        <v>0.86581960000000002</v>
       </c>
     </row>
   </sheetData>
@@ -727,10 +790,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAF288C-F9B7-4DD7-9A10-7E0ED627A21E}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1081,6 +1144,44 @@
         <v>0.90476199999999996</v>
       </c>
     </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f t="shared" ref="A22:C22" si="0">AVERAGE(A17:A21)</f>
+        <v>0.90125000000000011</v>
+      </c>
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.89875000000000005</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.90250000000000008</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" ref="E22:G22" si="1">AVERAGE(E17:E21)</f>
+        <v>0.90462620000000005</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.9012964</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.90570980000000001</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" ref="I22:K22" si="2">AVERAGE(I17:I21)</f>
+        <v>0.89756800000000003</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="2"/>
+        <v>0.89455580000000001</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="2"/>
+        <v>0.89971499999999993</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1089,10 +1190,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A6AFAC-B033-4ADE-B579-A856CAB177A5}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1436,6 +1537,44 @@
       </c>
       <c r="K21">
         <v>0.91139199999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f t="shared" ref="A22:C22" si="0">AVERAGE(A17:A21)</f>
+        <v>0.93375000000000008</v>
+      </c>
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93375000000000008</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93625000000000003</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" ref="E22:G22" si="1">AVERAGE(E17:E21)</f>
+        <v>0.96015240000000013</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.96427940000000001</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.95729000000000009</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" ref="I22:K22" si="2">AVERAGE(I17:I21)</f>
+        <v>0.90551779999999993</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="2"/>
+        <v>0.90289640000000004</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="2"/>
+        <v>0.91357080000000013</v>
       </c>
     </row>
   </sheetData>
@@ -1446,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF00BCE-01EE-4D0B-981E-3D918A8FDBAE}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1793,6 +1932,44 @@
       </c>
       <c r="K21">
         <v>0.92405099999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f t="shared" ref="A22:C22" si="0">AVERAGE(A17:A21)</f>
+        <v>0.95124999999999993</v>
+      </c>
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94500000000000006</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94374999999999998</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" ref="E22:G22" si="1">AVERAGE(E17:E21)</f>
+        <v>0.98081379999999996</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.97283000000000008</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.97287020000000002</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" ref="I22:K22" si="2">AVERAGE(I17:I21)</f>
+        <v>0.92352620000000007</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="2"/>
+        <v>0.91768939999999988</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="2"/>
+        <v>0.91509719999999994</v>
       </c>
     </row>
   </sheetData>
@@ -1803,10 +1980,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9CB7DC-E0F7-4A6B-9A65-A405DF44F97F}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2063,6 +2240,44 @@
       </c>
       <c r="K21">
         <v>0.86486499999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f t="shared" ref="A22:C22" si="0">AVERAGE(A17:A21)</f>
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.92125000000000001</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.91625000000000012</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" ref="E22:G22" si="1">AVERAGE(E17:E21)</f>
+        <v>0.93706519999999993</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.94637600000000011</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.95008859999999995</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" ref="I22:K22" si="2">AVERAGE(I17:I21)</f>
+        <v>0.87802899999999995</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="2"/>
+        <v>0.89745980000000003</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="2"/>
+        <v>0.88248819999999983</v>
       </c>
     </row>
   </sheetData>
@@ -2073,10 +2288,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562541EA-C098-4C43-AD2B-A4221380579C}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2335,6 +2550,46 @@
         <v>0.78571400000000002</v>
       </c>
     </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f t="shared" ref="A22:K22" si="0">AVERAGE(A17:A21)</f>
+        <v>0.87125000000000008</v>
+      </c>
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.86624999999999996</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.88124999999999998</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.92499819999999988</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.91632659999999999</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93043319999999985</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.81806939999999995</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.81421620000000006</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.83323220000000009</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/结果/SVM分类/标准差/SVM_DE_biaozhuncha.xlsx
+++ b/结果/SVM分类/标准差/SVM_DE_biaozhuncha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\SVM分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D021A5C1-5DAB-462A-924A-B04BD0BC934B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E330C58-CB53-4A89-B78D-9C7CB6F13F7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5292" yWindow="516" windowWidth="19668" windowHeight="9792" tabRatio="663" firstSheet="1" activeTab="5" xr2:uid="{A30C5435-30B2-4349-98DE-ADF2EDEF8D38}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="663" firstSheet="1" activeTab="6" xr2:uid="{A30C5435-30B2-4349-98DE-ADF2EDEF8D38}"/>
   </bookViews>
   <sheets>
     <sheet name="biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="biaozhuncha_d3" sheetId="4" r:id="rId4"/>
     <sheet name="biaozhuncha_d4" sheetId="5" r:id="rId5"/>
     <sheet name="biaozhuncha_d5" sheetId="6" r:id="rId6"/>
+    <sheet name="biaozhuncha_multi_attri" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1193,7 +1206,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:K21"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2290,7 +2303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562541EA-C098-4C43-AD2B-A4221380579C}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -2595,4 +2608,211 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD5590F-E46F-4535-8F83-E08E85DC3FC7}">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>95.625</v>
+      </c>
+      <c r="B2">
+        <v>94.666700000000006</v>
+      </c>
+      <c r="C2">
+        <v>96.470600000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>96.25</v>
+      </c>
+      <c r="B4">
+        <v>95.454499999999996</v>
+      </c>
+      <c r="C4">
+        <v>97.222200000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>98.125</v>
+      </c>
+      <c r="B6">
+        <v>97.5</v>
+      </c>
+      <c r="C6">
+        <v>98.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>95.625</v>
+      </c>
+      <c r="B8">
+        <v>98.823499999999996</v>
+      </c>
+      <c r="C8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>99.375</v>
+      </c>
+      <c r="B10">
+        <v>98.611099999999993</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>97.5</v>
+      </c>
+      <c r="B15">
+        <v>97.5</v>
+      </c>
+      <c r="C15">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>95</v>
+      </c>
+      <c r="B17">
+        <v>93.670900000000003</v>
+      </c>
+      <c r="C17">
+        <v>96.296300000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>96.875</v>
+      </c>
+      <c r="B19">
+        <v>96.511600000000001</v>
+      </c>
+      <c r="C19">
+        <v>97.297300000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>97.5</v>
+      </c>
+      <c r="B21">
+        <v>98.701300000000003</v>
+      </c>
+      <c r="C21">
+        <v>96.385499999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>98.75</v>
+      </c>
+      <c r="B23">
+        <v>98.7179</v>
+      </c>
+      <c r="C23">
+        <v>98.780500000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>97.5</v>
+      </c>
+      <c r="B28">
+        <v>97.872299999999996</v>
+      </c>
+      <c r="C28">
+        <v>96.969700000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>96.875</v>
+      </c>
+      <c r="B30">
+        <v>95.522400000000005</v>
+      </c>
+      <c r="C30">
+        <v>97.849500000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>95.625</v>
+      </c>
+      <c r="B32">
+        <v>96.153800000000004</v>
+      </c>
+      <c r="C32">
+        <v>95.122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>98.75</v>
+      </c>
+      <c r="B34">
+        <v>98.684200000000004</v>
+      </c>
+      <c r="C34">
+        <v>98.8095</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>96.25</v>
+      </c>
+      <c r="B36">
+        <v>95.2941</v>
+      </c>
+      <c r="C36">
+        <v>97.333299999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>97.041666666666671</v>
+      </c>
+      <c r="B37" s="3">
+        <f t="shared" si="0"/>
+        <v>96.91228666666666</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="0"/>
+        <v>97.119093333333339</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/结果/SVM分类/标准差/SVM_DE_biaozhuncha.xlsx
+++ b/结果/SVM分类/标准差/SVM_DE_biaozhuncha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\SVM分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E330C58-CB53-4A89-B78D-9C7CB6F13F7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3112D9-95AA-48D3-BB19-79040C93EB5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="663" firstSheet="1" activeTab="6" xr2:uid="{A30C5435-30B2-4349-98DE-ADF2EDEF8D38}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="21276" windowHeight="12360" tabRatio="663" firstSheet="2" activeTab="6" xr2:uid="{A30C5435-30B2-4349-98DE-ADF2EDEF8D38}"/>
   </bookViews>
   <sheets>
     <sheet name="biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12998AB6-9737-4B74-B63D-F322F7BD0B91}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -792,6 +792,20 @@
       <c r="K22" s="3">
         <f t="shared" si="2"/>
         <v>0.86581960000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>AVERAGE(A22:C22)</f>
+        <v>0.90875000000000006</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E22:G22)</f>
+        <v>0.95342313333333328</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I22:K22)</f>
+        <v>0.86514253333333346</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +817,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAF288C-F9B7-4DD7-9A10-7E0ED627A21E}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:K21"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1195,6 +1209,20 @@
         <v>0.89971499999999993</v>
       </c>
     </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>AVERAGE(A22:C22)</f>
+        <v>0.90083333333333349</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E22:G22)</f>
+        <v>0.90387746666666668</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I22:K22)</f>
+        <v>0.89727960000000007</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1203,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A6AFAC-B033-4ADE-B579-A856CAB177A5}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1588,6 +1616,20 @@
       <c r="K22" s="3">
         <f t="shared" si="2"/>
         <v>0.91357080000000013</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>AVERAGE(A22:C22)</f>
+        <v>0.93458333333333332</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E22:G22)</f>
+        <v>0.96057393333333341</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I22:K22)</f>
+        <v>0.9073283333333334</v>
       </c>
     </row>
   </sheetData>
@@ -1598,10 +1640,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF00BCE-01EE-4D0B-981E-3D918A8FDBAE}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:K21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1983,6 +2025,20 @@
       <c r="K22" s="3">
         <f t="shared" si="2"/>
         <v>0.91509719999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>AVERAGE(A22:C22)</f>
+        <v>0.94666666666666666</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E22:G22)</f>
+        <v>0.97550466666666669</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I22:K22)</f>
+        <v>0.91877093333333326</v>
       </c>
     </row>
   </sheetData>
@@ -1993,10 +2049,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9CB7DC-E0F7-4A6B-9A65-A405DF44F97F}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2291,6 +2347,20 @@
       <c r="K22" s="3">
         <f t="shared" si="2"/>
         <v>0.88248819999999983</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>AVERAGE(A22:C22)</f>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E22:G22)</f>
+        <v>0.94450993333333333</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I22:K22)</f>
+        <v>0.88599233333333327</v>
       </c>
     </row>
   </sheetData>
@@ -2301,10 +2371,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562541EA-C098-4C43-AD2B-A4221380579C}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2601,6 +2671,20 @@
       <c r="K22" s="3">
         <f t="shared" si="0"/>
         <v>0.83323220000000009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>AVERAGE(A22:C22)</f>
+        <v>0.87291666666666667</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E22:G22)</f>
+        <v>0.9239193333333332</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I22:K22)</f>
+        <v>0.82183926666666662</v>
       </c>
     </row>
   </sheetData>
@@ -2614,7 +2698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD5590F-E46F-4535-8F83-E08E85DC3FC7}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
